--- a/data/raw/airline_greviance_data_2021.xlsx
+++ b/data/raw/airline_greviance_data_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5cdda4599523785/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxti\Data301\project-group-group51\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="8_{497C244D-D443-48ED-A1AE-F7FD1E05F998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42BC2535-EC35-4325-9AA9-921650BDBBD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D1F09-8DE2-4FBA-B741-E7756FD204B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C74D9F7-3B20-4C16-9D8B-CD70AD99499B}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C74D9F7-3B20-4C16-9D8B-CD70AD99499B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="24">
   <si>
     <t>Carrier_name</t>
   </si>
@@ -164,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6432CBB-E1C3-4CD3-B44D-A970215D77BF}">
-  <dimension ref="B4:I72"/>
+  <dimension ref="B4:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,31 +497,30 @@
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -545,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -568,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -591,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -614,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -637,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -660,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -683,7 +681,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -706,7 +704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -729,7 +727,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -752,7 +750,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -775,7 +773,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1982,6 +1980,1757 @@
       </c>
       <c r="H72">
         <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>21513</v>
+      </c>
+      <c r="E73">
+        <v>472</v>
+      </c>
+      <c r="F73">
+        <v>6331</v>
+      </c>
+      <c r="H73">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>13095</v>
+      </c>
+      <c r="E74">
+        <v>229</v>
+      </c>
+      <c r="F74">
+        <v>2876</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>20681</v>
+      </c>
+      <c r="E75">
+        <v>105</v>
+      </c>
+      <c r="F75">
+        <v>4418</v>
+      </c>
+      <c r="H75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>29189</v>
+      </c>
+      <c r="E76">
+        <v>70</v>
+      </c>
+      <c r="F76">
+        <v>4507</v>
+      </c>
+      <c r="H76">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>60400</v>
+      </c>
+      <c r="E77">
+        <v>237</v>
+      </c>
+      <c r="F77">
+        <v>7372</v>
+      </c>
+      <c r="H77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>10137</v>
+      </c>
+      <c r="E78">
+        <v>86</v>
+      </c>
+      <c r="F78">
+        <v>1628</v>
+      </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>24103</v>
+      </c>
+      <c r="E79">
+        <v>13</v>
+      </c>
+      <c r="F79">
+        <v>3377</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>61115</v>
+      </c>
+      <c r="E80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <v>16130</v>
+      </c>
+      <c r="H80">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>61032</v>
+      </c>
+      <c r="E81">
+        <v>607</v>
+      </c>
+      <c r="F81">
+        <v>32041</v>
+      </c>
+      <c r="H81">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>5</v>
+      </c>
+      <c r="D82">
+        <v>15999</v>
+      </c>
+      <c r="E82">
+        <v>36</v>
+      </c>
+      <c r="F82">
+        <v>5484</v>
+      </c>
+      <c r="H82">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83">
+        <v>5</v>
+      </c>
+      <c r="D83">
+        <v>4580</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>754</v>
+      </c>
+      <c r="H83">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>5</v>
+      </c>
+      <c r="D84">
+        <v>30957</v>
+      </c>
+      <c r="E84">
+        <v>64</v>
+      </c>
+      <c r="F84">
+        <v>7703</v>
+      </c>
+      <c r="H84">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>5</v>
+      </c>
+      <c r="D85">
+        <v>11940</v>
+      </c>
+      <c r="E85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>1972</v>
+      </c>
+      <c r="H85">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>5</v>
+      </c>
+      <c r="D86">
+        <v>87286</v>
+      </c>
+      <c r="E86">
+        <v>257</v>
+      </c>
+      <c r="F86">
+        <v>25357</v>
+      </c>
+      <c r="H86">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>5</v>
+      </c>
+      <c r="D87">
+        <v>17032</v>
+      </c>
+      <c r="E87">
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <v>3936</v>
+      </c>
+      <c r="H87">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <v>8920</v>
+      </c>
+      <c r="E88">
+        <v>23</v>
+      </c>
+      <c r="F88">
+        <v>553</v>
+      </c>
+      <c r="H88">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>5</v>
+      </c>
+      <c r="D89">
+        <v>17565</v>
+      </c>
+      <c r="E89">
+        <v>43</v>
+      </c>
+      <c r="F89">
+        <v>4537</v>
+      </c>
+      <c r="H89">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+      <c r="D90">
+        <v>23506</v>
+      </c>
+      <c r="E90">
+        <v>352</v>
+      </c>
+      <c r="F90">
+        <v>10472</v>
+      </c>
+      <c r="H90">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>14252</v>
+      </c>
+      <c r="E91">
+        <v>309</v>
+      </c>
+      <c r="F91">
+        <v>5784</v>
+      </c>
+      <c r="H91">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+      <c r="D92">
+        <v>20396</v>
+      </c>
+      <c r="E92">
+        <v>146</v>
+      </c>
+      <c r="F92">
+        <v>6651</v>
+      </c>
+      <c r="H92">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+      <c r="D93">
+        <v>30952</v>
+      </c>
+      <c r="E93">
+        <v>614</v>
+      </c>
+      <c r="F93">
+        <v>7210</v>
+      </c>
+      <c r="H93">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+      <c r="D94">
+        <v>67511</v>
+      </c>
+      <c r="E94">
+        <v>505</v>
+      </c>
+      <c r="F94">
+        <v>12643</v>
+      </c>
+      <c r="H94">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+      <c r="D95">
+        <v>10607</v>
+      </c>
+      <c r="E95">
+        <v>212</v>
+      </c>
+      <c r="F95">
+        <v>3363</v>
+      </c>
+      <c r="H95">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+      <c r="D96">
+        <v>25214</v>
+      </c>
+      <c r="E96">
+        <v>38</v>
+      </c>
+      <c r="F96">
+        <v>4757</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>6</v>
+      </c>
+      <c r="D97">
+        <v>65882</v>
+      </c>
+      <c r="E97">
+        <v>12</v>
+      </c>
+      <c r="F97">
+        <v>23756</v>
+      </c>
+      <c r="H97">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>70426</v>
+      </c>
+      <c r="E98">
+        <v>2400</v>
+      </c>
+      <c r="F98">
+        <v>65472</v>
+      </c>
+      <c r="H98">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+      <c r="D99">
+        <v>16971</v>
+      </c>
+      <c r="E99">
+        <v>247</v>
+      </c>
+      <c r="F99">
+        <v>13716</v>
+      </c>
+      <c r="H99">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+      <c r="D100">
+        <v>5980</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>1185</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <v>35760</v>
+      </c>
+      <c r="E101">
+        <v>66</v>
+      </c>
+      <c r="F101">
+        <v>13604</v>
+      </c>
+      <c r="H101">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+      <c r="D102">
+        <v>12590</v>
+      </c>
+      <c r="E102">
+        <v>201</v>
+      </c>
+      <c r="F102">
+        <v>2895</v>
+      </c>
+      <c r="H102">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+      <c r="D103">
+        <v>98532</v>
+      </c>
+      <c r="E103">
+        <v>3250</v>
+      </c>
+      <c r="F103">
+        <v>52573</v>
+      </c>
+      <c r="H103">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104">
+        <v>16608</v>
+      </c>
+      <c r="E104">
+        <v>105</v>
+      </c>
+      <c r="F104">
+        <v>4773</v>
+      </c>
+      <c r="H104">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105">
+        <v>12568</v>
+      </c>
+      <c r="E105">
+        <v>278</v>
+      </c>
+      <c r="F105">
+        <v>1613</v>
+      </c>
+      <c r="H105">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106">
+        <v>18369</v>
+      </c>
+      <c r="E106">
+        <v>113</v>
+      </c>
+      <c r="F106">
+        <v>6489</v>
+      </c>
+      <c r="H106">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>7</v>
+      </c>
+      <c r="D107">
+        <v>24276</v>
+      </c>
+      <c r="E107">
+        <v>217</v>
+      </c>
+      <c r="F107">
+        <v>10661</v>
+      </c>
+      <c r="G107">
+        <v>1422</v>
+      </c>
+      <c r="H107">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>15755</v>
+      </c>
+      <c r="E108">
+        <v>409</v>
+      </c>
+      <c r="F108">
+        <v>6514</v>
+      </c>
+      <c r="G108">
+        <v>808</v>
+      </c>
+      <c r="H108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>7</v>
+      </c>
+      <c r="D109">
+        <v>21269</v>
+      </c>
+      <c r="E109">
+        <v>368</v>
+      </c>
+      <c r="F109">
+        <v>7770</v>
+      </c>
+      <c r="G109">
+        <v>1342</v>
+      </c>
+      <c r="H109">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>32700</v>
+      </c>
+      <c r="E110">
+        <v>1285</v>
+      </c>
+      <c r="F110">
+        <v>8024</v>
+      </c>
+      <c r="G110">
+        <v>2855</v>
+      </c>
+      <c r="H110">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111">
+        <v>72133</v>
+      </c>
+      <c r="E111">
+        <v>765</v>
+      </c>
+      <c r="F111">
+        <v>13989</v>
+      </c>
+      <c r="G111">
+        <v>3592</v>
+      </c>
+      <c r="H111">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C112">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>11400</v>
+      </c>
+      <c r="E112">
+        <v>125</v>
+      </c>
+      <c r="F112">
+        <v>2886</v>
+      </c>
+      <c r="G112">
+        <v>706</v>
+      </c>
+      <c r="H112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113">
+        <v>25057</v>
+      </c>
+      <c r="E113">
+        <v>112</v>
+      </c>
+      <c r="F113">
+        <v>5088</v>
+      </c>
+      <c r="G113">
+        <v>1181</v>
+      </c>
+      <c r="H113">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>7</v>
+      </c>
+      <c r="D114">
+        <v>70002</v>
+      </c>
+      <c r="E114">
+        <v>63</v>
+      </c>
+      <c r="F114">
+        <v>27603</v>
+      </c>
+      <c r="G114">
+        <v>3231</v>
+      </c>
+      <c r="H114">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115">
+        <v>7</v>
+      </c>
+      <c r="D115">
+        <v>72965</v>
+      </c>
+      <c r="E115">
+        <v>1223</v>
+      </c>
+      <c r="F115">
+        <v>67913</v>
+      </c>
+      <c r="G115">
+        <v>5192</v>
+      </c>
+      <c r="H115">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>7</v>
+      </c>
+      <c r="D116">
+        <v>17370</v>
+      </c>
+      <c r="E116">
+        <v>119</v>
+      </c>
+      <c r="F116">
+        <v>10457</v>
+      </c>
+      <c r="G116">
+        <v>915</v>
+      </c>
+      <c r="H116">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>6214</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
+      </c>
+      <c r="F117">
+        <v>1369</v>
+      </c>
+      <c r="G117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>7</v>
+      </c>
+      <c r="D118">
+        <v>43445</v>
+      </c>
+      <c r="E118">
+        <v>586</v>
+      </c>
+      <c r="F118">
+        <v>19856</v>
+      </c>
+      <c r="G118">
+        <v>1341</v>
+      </c>
+      <c r="H118">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+      <c r="D119">
+        <v>13467</v>
+      </c>
+      <c r="E119">
+        <v>463</v>
+      </c>
+      <c r="F119">
+        <v>3079</v>
+      </c>
+      <c r="G119">
+        <v>886</v>
+      </c>
+      <c r="H119">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120">
+        <v>103956</v>
+      </c>
+      <c r="E120">
+        <v>1725</v>
+      </c>
+      <c r="F120">
+        <v>48522</v>
+      </c>
+      <c r="G120">
+        <v>9008</v>
+      </c>
+      <c r="H120">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>18993</v>
+      </c>
+      <c r="E121">
+        <v>333</v>
+      </c>
+      <c r="F121">
+        <v>6533</v>
+      </c>
+      <c r="G121">
+        <v>3131</v>
+      </c>
+      <c r="H121">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122">
+        <v>14130</v>
+      </c>
+      <c r="E122">
+        <v>820</v>
+      </c>
+      <c r="F122">
+        <v>1514</v>
+      </c>
+      <c r="G122">
+        <v>203</v>
+      </c>
+      <c r="H122">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B123" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123">
+        <v>20126</v>
+      </c>
+      <c r="E123">
+        <v>516</v>
+      </c>
+      <c r="F123">
+        <v>8373</v>
+      </c>
+      <c r="G123">
+        <v>463</v>
+      </c>
+      <c r="H123">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B124" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>8</v>
+      </c>
+      <c r="D124">
+        <v>24055</v>
+      </c>
+      <c r="E124">
+        <v>875</v>
+      </c>
+      <c r="F124">
+        <v>11561</v>
+      </c>
+      <c r="H124">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125">
+        <v>8</v>
+      </c>
+      <c r="D125">
+        <v>15619</v>
+      </c>
+      <c r="E125">
+        <v>464</v>
+      </c>
+      <c r="F125">
+        <v>5943</v>
+      </c>
+      <c r="H125">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126">
+        <v>8</v>
+      </c>
+      <c r="D126">
+        <v>21381</v>
+      </c>
+      <c r="E126">
+        <v>538</v>
+      </c>
+      <c r="F126">
+        <v>7386</v>
+      </c>
+      <c r="H126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+      <c r="D127">
+        <v>31831</v>
+      </c>
+      <c r="E127">
+        <v>1356</v>
+      </c>
+      <c r="F127">
+        <v>7766</v>
+      </c>
+      <c r="H127">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>8</v>
+      </c>
+      <c r="D128">
+        <v>71616</v>
+      </c>
+      <c r="E128">
+        <v>1462</v>
+      </c>
+      <c r="F128">
+        <v>13945</v>
+      </c>
+      <c r="H128">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>8</v>
+      </c>
+      <c r="D129">
+        <v>11127</v>
+      </c>
+      <c r="E129">
+        <v>131</v>
+      </c>
+      <c r="F129">
+        <v>3005</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>23060</v>
+      </c>
+      <c r="E130">
+        <v>66</v>
+      </c>
+      <c r="F130">
+        <v>5369</v>
+      </c>
+      <c r="H130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>8</v>
+      </c>
+      <c r="D131">
+        <v>70653</v>
+      </c>
+      <c r="E131">
+        <v>113</v>
+      </c>
+      <c r="F131">
+        <v>29274</v>
+      </c>
+      <c r="H131">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>8</v>
+      </c>
+      <c r="D132">
+        <v>73455</v>
+      </c>
+      <c r="E132">
+        <v>3551</v>
+      </c>
+      <c r="F132">
+        <v>61705</v>
+      </c>
+      <c r="H132">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>8</v>
+      </c>
+      <c r="D133">
+        <v>17890</v>
+      </c>
+      <c r="E133">
+        <v>120</v>
+      </c>
+      <c r="F133">
+        <v>13570</v>
+      </c>
+      <c r="H133">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>8</v>
+      </c>
+      <c r="D134">
+        <v>6589</v>
+      </c>
+      <c r="E134">
+        <v>53</v>
+      </c>
+      <c r="F134">
+        <v>1099</v>
+      </c>
+      <c r="H134">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>8</v>
+      </c>
+      <c r="D135">
+        <v>44765</v>
+      </c>
+      <c r="E135">
+        <v>628</v>
+      </c>
+      <c r="F135">
+        <v>17616</v>
+      </c>
+      <c r="H135">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>8</v>
+      </c>
+      <c r="D136">
+        <v>13398</v>
+      </c>
+      <c r="E136">
+        <v>322</v>
+      </c>
+      <c r="F136">
+        <v>2985</v>
+      </c>
+      <c r="H136">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>8</v>
+      </c>
+      <c r="D137">
+        <v>104524</v>
+      </c>
+      <c r="E137">
+        <v>3595</v>
+      </c>
+      <c r="F137">
+        <v>41766</v>
+      </c>
+      <c r="H137">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>8</v>
+      </c>
+      <c r="D138">
+        <v>19096</v>
+      </c>
+      <c r="E138">
+        <v>2923</v>
+      </c>
+      <c r="F138">
+        <v>4789</v>
+      </c>
+      <c r="H138">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>9920</v>
+      </c>
+      <c r="E139">
+        <v>570</v>
+      </c>
+      <c r="F139">
+        <v>768</v>
+      </c>
+      <c r="H139">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140">
+        <v>8</v>
+      </c>
+      <c r="D140">
+        <v>20271</v>
+      </c>
+      <c r="E140">
+        <v>425</v>
+      </c>
+      <c r="F140">
+        <v>9040</v>
+      </c>
+      <c r="H140">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141">
+        <v>9</v>
+      </c>
+      <c r="D141">
+        <v>21735</v>
+      </c>
+      <c r="E141">
+        <v>141</v>
+      </c>
+      <c r="F141">
+        <v>4369</v>
+      </c>
+      <c r="H141">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>9</v>
+      </c>
+      <c r="D142">
+        <v>13796</v>
+      </c>
+      <c r="E142">
+        <v>160</v>
+      </c>
+      <c r="F142">
+        <v>2495</v>
+      </c>
+      <c r="H142">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143">
+        <v>9</v>
+      </c>
+      <c r="D143">
+        <v>19618</v>
+      </c>
+      <c r="E143">
+        <v>202</v>
+      </c>
+      <c r="F143">
+        <v>3800</v>
+      </c>
+      <c r="H143">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>4</v>
+      </c>
+      <c r="C144">
+        <v>9</v>
+      </c>
+      <c r="D144">
+        <v>29780</v>
+      </c>
+      <c r="E144">
+        <v>710</v>
+      </c>
+      <c r="F144">
+        <v>3997</v>
+      </c>
+      <c r="H144">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145">
+        <v>9</v>
+      </c>
+      <c r="D145">
+        <v>66966</v>
+      </c>
+      <c r="E145">
+        <v>297</v>
+      </c>
+      <c r="F145">
+        <v>8302</v>
+      </c>
+      <c r="H145">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>6</v>
+      </c>
+      <c r="C146">
+        <v>9</v>
+      </c>
+      <c r="D146">
+        <v>9200</v>
+      </c>
+      <c r="E146">
+        <v>42</v>
+      </c>
+      <c r="F146">
+        <v>1686</v>
+      </c>
+      <c r="H146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>9</v>
+      </c>
+      <c r="D147">
+        <v>21946</v>
+      </c>
+      <c r="E147">
+        <v>80</v>
+      </c>
+      <c r="F147">
+        <v>4221</v>
+      </c>
+      <c r="H147">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>9</v>
+      </c>
+      <c r="D148">
+        <v>67597</v>
+      </c>
+      <c r="E148">
+        <v>295</v>
+      </c>
+      <c r="F148">
+        <v>29245</v>
+      </c>
+      <c r="H148">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149">
+        <v>9</v>
+      </c>
+      <c r="D149">
+        <v>67576</v>
+      </c>
+      <c r="E149">
+        <v>759</v>
+      </c>
+      <c r="F149">
+        <v>29035</v>
+      </c>
+      <c r="H149">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B150" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150">
+        <v>9</v>
+      </c>
+      <c r="D150">
+        <v>17438</v>
+      </c>
+      <c r="E150">
+        <v>127</v>
+      </c>
+      <c r="F150">
+        <v>7207</v>
+      </c>
+      <c r="H150">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151">
+        <v>9</v>
+      </c>
+      <c r="D151">
+        <v>6233</v>
+      </c>
+      <c r="E151">
+        <v>36</v>
+      </c>
+      <c r="F151">
+        <v>695</v>
+      </c>
+      <c r="H151">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>9</v>
+      </c>
+      <c r="D152">
+        <v>44427</v>
+      </c>
+      <c r="E152">
+        <v>633</v>
+      </c>
+      <c r="F152">
+        <v>11801</v>
+      </c>
+      <c r="H152">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153">
+        <v>9</v>
+      </c>
+      <c r="D153">
+        <v>12155</v>
+      </c>
+      <c r="E153">
+        <v>79</v>
+      </c>
+      <c r="F153">
+        <v>2220</v>
+      </c>
+      <c r="H153">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B154" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154">
+        <v>9</v>
+      </c>
+      <c r="D154">
+        <v>97438</v>
+      </c>
+      <c r="E154">
+        <v>2326</v>
+      </c>
+      <c r="F154">
+        <v>26044</v>
+      </c>
+      <c r="H154">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>15</v>
+      </c>
+      <c r="C155">
+        <v>9</v>
+      </c>
+      <c r="D155">
+        <v>16867</v>
+      </c>
+      <c r="E155">
+        <v>316</v>
+      </c>
+      <c r="F155">
+        <v>3481</v>
+      </c>
+      <c r="H155">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156">
+        <v>9</v>
+      </c>
+      <c r="D156">
+        <v>6704</v>
+      </c>
+      <c r="E156">
+        <v>50</v>
+      </c>
+      <c r="F156">
+        <v>503</v>
+      </c>
+      <c r="H156">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>17</v>
+      </c>
+      <c r="C157">
+        <v>9</v>
+      </c>
+      <c r="D157">
+        <v>18575</v>
+      </c>
+      <c r="E157">
+        <v>487</v>
+      </c>
+      <c r="F157">
+        <v>5011</v>
+      </c>
+      <c r="H157">
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/data/raw/airline_greviance_data_2021.xlsx
+++ b/data/raw/airline_greviance_data_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxti\Data301\project-group-group51\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940D1F09-8DE2-4FBA-B741-E7756FD204B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47CAE10-66DB-4F8E-B773-D2B7B945366C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C74D9F7-3B20-4C16-9D8B-CD70AD99499B}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{5C74D9F7-3B20-4C16-9D8B-CD70AD99499B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="24">
   <si>
     <t>Carrier_name</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6432CBB-E1C3-4CD3-B44D-A970215D77BF}">
-  <dimension ref="B4:H157"/>
+  <dimension ref="B4:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3733,6 +3733,1077 @@
         <v>212</v>
       </c>
     </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>10</v>
+      </c>
+      <c r="D158">
+        <v>22776</v>
+      </c>
+      <c r="E158">
+        <v>478</v>
+      </c>
+      <c r="F158">
+        <v>6401</v>
+      </c>
+      <c r="G158">
+        <v>1150</v>
+      </c>
+      <c r="H158">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>10</v>
+      </c>
+      <c r="D159">
+        <v>14610</v>
+      </c>
+      <c r="E159">
+        <v>299</v>
+      </c>
+      <c r="F159">
+        <v>3676</v>
+      </c>
+      <c r="G159">
+        <v>873</v>
+      </c>
+      <c r="H159">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160">
+        <v>10</v>
+      </c>
+      <c r="D160">
+        <v>20865</v>
+      </c>
+      <c r="E160">
+        <v>40</v>
+      </c>
+      <c r="F160">
+        <v>5403</v>
+      </c>
+      <c r="G160">
+        <v>1830</v>
+      </c>
+      <c r="H160">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>4</v>
+      </c>
+      <c r="C161">
+        <v>10</v>
+      </c>
+      <c r="D161">
+        <v>29086</v>
+      </c>
+      <c r="E161">
+        <v>177</v>
+      </c>
+      <c r="F161">
+        <v>4726</v>
+      </c>
+      <c r="G161">
+        <v>5164</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+      <c r="D162">
+        <v>16858</v>
+      </c>
+      <c r="E162">
+        <v>2458</v>
+      </c>
+      <c r="F162">
+        <v>11191</v>
+      </c>
+      <c r="G162">
+        <v>6743</v>
+      </c>
+      <c r="H162">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>6</v>
+      </c>
+      <c r="C163">
+        <v>10</v>
+      </c>
+      <c r="D163">
+        <v>7683</v>
+      </c>
+      <c r="E163">
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <v>1477</v>
+      </c>
+      <c r="G163">
+        <v>459</v>
+      </c>
+      <c r="H163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>23482</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>4860</v>
+      </c>
+      <c r="G164">
+        <v>3642</v>
+      </c>
+      <c r="H164">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>10</v>
+      </c>
+      <c r="D165">
+        <v>70510</v>
+      </c>
+      <c r="E165">
+        <v>35</v>
+      </c>
+      <c r="F165">
+        <v>33967</v>
+      </c>
+      <c r="G165">
+        <v>12929</v>
+      </c>
+      <c r="H165">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>10</v>
+      </c>
+      <c r="D166">
+        <v>73778</v>
+      </c>
+      <c r="E166">
+        <v>3106</v>
+      </c>
+      <c r="F166">
+        <v>43035</v>
+      </c>
+      <c r="G166">
+        <v>6008</v>
+      </c>
+      <c r="H166">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>10</v>
+      </c>
+      <c r="D167">
+        <v>17848</v>
+      </c>
+      <c r="E167">
+        <v>191</v>
+      </c>
+      <c r="F167">
+        <v>8682</v>
+      </c>
+      <c r="G167">
+        <v>1059</v>
+      </c>
+      <c r="H167">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+      <c r="C168">
+        <v>10</v>
+      </c>
+      <c r="D168">
+        <v>5856</v>
+      </c>
+      <c r="E168">
+        <v>9</v>
+      </c>
+      <c r="F168">
+        <v>882</v>
+      </c>
+      <c r="G168">
+        <v>2</v>
+      </c>
+      <c r="H168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>10</v>
+      </c>
+      <c r="D169">
+        <v>47757</v>
+      </c>
+      <c r="E169">
+        <v>254</v>
+      </c>
+      <c r="F169">
+        <v>13647</v>
+      </c>
+      <c r="G169">
+        <v>2864</v>
+      </c>
+      <c r="H169">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170">
+        <v>10</v>
+      </c>
+      <c r="D170">
+        <v>12987</v>
+      </c>
+      <c r="E170">
+        <v>79</v>
+      </c>
+      <c r="F170">
+        <v>2391</v>
+      </c>
+      <c r="G170">
+        <v>1489</v>
+      </c>
+      <c r="H170">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>10</v>
+      </c>
+      <c r="D171">
+        <v>103300</v>
+      </c>
+      <c r="E171">
+        <v>3972</v>
+      </c>
+      <c r="F171">
+        <v>41245</v>
+      </c>
+      <c r="G171">
+        <v>10242</v>
+      </c>
+      <c r="H171">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B172" t="s">
+        <v>15</v>
+      </c>
+      <c r="C172">
+        <v>10</v>
+      </c>
+      <c r="D172">
+        <v>16858</v>
+      </c>
+      <c r="E172">
+        <v>249</v>
+      </c>
+      <c r="F172">
+        <v>3516</v>
+      </c>
+      <c r="G172">
+        <v>1766</v>
+      </c>
+      <c r="H172">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173">
+        <v>10</v>
+      </c>
+      <c r="D173">
+        <v>9313</v>
+      </c>
+      <c r="E173">
+        <v>333</v>
+      </c>
+      <c r="F173">
+        <v>877</v>
+      </c>
+      <c r="G173">
+        <v>519</v>
+      </c>
+      <c r="H173">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>17</v>
+      </c>
+      <c r="C174">
+        <v>10</v>
+      </c>
+      <c r="D174">
+        <v>19083</v>
+      </c>
+      <c r="E174">
+        <v>54</v>
+      </c>
+      <c r="F174">
+        <v>4613</v>
+      </c>
+      <c r="G174">
+        <v>901</v>
+      </c>
+      <c r="H174">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175">
+        <v>11</v>
+      </c>
+      <c r="D175">
+        <v>22326</v>
+      </c>
+      <c r="E175">
+        <v>58</v>
+      </c>
+      <c r="F175">
+        <v>5466</v>
+      </c>
+      <c r="H175">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>11</v>
+      </c>
+      <c r="D176">
+        <v>13454</v>
+      </c>
+      <c r="E176">
+        <v>282</v>
+      </c>
+      <c r="F176">
+        <v>2864</v>
+      </c>
+      <c r="H176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177">
+        <v>11</v>
+      </c>
+      <c r="D177">
+        <v>19727</v>
+      </c>
+      <c r="E177">
+        <v>51</v>
+      </c>
+      <c r="F177">
+        <v>4822</v>
+      </c>
+      <c r="H177">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>11</v>
+      </c>
+      <c r="D178">
+        <v>27548</v>
+      </c>
+      <c r="E178">
+        <v>49</v>
+      </c>
+      <c r="F178">
+        <v>4473</v>
+      </c>
+      <c r="H178">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179">
+        <v>11</v>
+      </c>
+      <c r="D179">
+        <v>66279</v>
+      </c>
+      <c r="E179">
+        <v>280</v>
+      </c>
+      <c r="F179">
+        <v>9173</v>
+      </c>
+      <c r="H179">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180">
+        <v>11</v>
+      </c>
+      <c r="D180">
+        <v>7687</v>
+      </c>
+      <c r="E180">
+        <v>46</v>
+      </c>
+      <c r="F180">
+        <v>2000</v>
+      </c>
+      <c r="H180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>11</v>
+      </c>
+      <c r="D181">
+        <v>21149</v>
+      </c>
+      <c r="E181">
+        <v>15</v>
+      </c>
+      <c r="F181">
+        <v>3724</v>
+      </c>
+      <c r="H181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>11</v>
+      </c>
+      <c r="D182">
+        <v>70361</v>
+      </c>
+      <c r="E182">
+        <v>14</v>
+      </c>
+      <c r="F182">
+        <v>30084</v>
+      </c>
+      <c r="H182">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B183" t="s">
+        <v>9</v>
+      </c>
+      <c r="C183">
+        <v>11</v>
+      </c>
+      <c r="D183">
+        <v>72980</v>
+      </c>
+      <c r="E183">
+        <v>1347</v>
+      </c>
+      <c r="F183">
+        <v>38207</v>
+      </c>
+      <c r="H183">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B184" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184">
+        <v>11</v>
+      </c>
+      <c r="D184">
+        <v>16893</v>
+      </c>
+      <c r="E184">
+        <v>237</v>
+      </c>
+      <c r="F184">
+        <v>10001</v>
+      </c>
+      <c r="H184">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185">
+        <v>11</v>
+      </c>
+      <c r="D185">
+        <v>5749</v>
+      </c>
+      <c r="E185">
+        <v>4</v>
+      </c>
+      <c r="F185">
+        <v>898</v>
+      </c>
+      <c r="H185">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B186" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186">
+        <v>11</v>
+      </c>
+      <c r="D186">
+        <v>47212</v>
+      </c>
+      <c r="E186">
+        <v>239</v>
+      </c>
+      <c r="F186">
+        <v>12483</v>
+      </c>
+      <c r="H186">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>11</v>
+      </c>
+      <c r="D187">
+        <v>12803</v>
+      </c>
+      <c r="E187">
+        <v>24</v>
+      </c>
+      <c r="F187">
+        <v>2399</v>
+      </c>
+      <c r="H187">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>14</v>
+      </c>
+      <c r="C188">
+        <v>11</v>
+      </c>
+      <c r="D188">
+        <v>97398</v>
+      </c>
+      <c r="E188">
+        <v>490</v>
+      </c>
+      <c r="F188">
+        <v>29795</v>
+      </c>
+      <c r="H188">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189">
+        <v>11</v>
+      </c>
+      <c r="D189">
+        <v>17441</v>
+      </c>
+      <c r="E189">
+        <v>108</v>
+      </c>
+      <c r="F189">
+        <v>4082</v>
+      </c>
+      <c r="H189">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>11</v>
+      </c>
+      <c r="D190">
+        <v>8999</v>
+      </c>
+      <c r="E190">
+        <v>153</v>
+      </c>
+      <c r="F190">
+        <v>637</v>
+      </c>
+      <c r="H190">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191">
+        <v>11</v>
+      </c>
+      <c r="D191">
+        <v>19625</v>
+      </c>
+      <c r="E191">
+        <v>27</v>
+      </c>
+      <c r="F191">
+        <v>5335</v>
+      </c>
+      <c r="H191">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192">
+        <v>12</v>
+      </c>
+      <c r="D192">
+        <v>22845</v>
+      </c>
+      <c r="E192">
+        <v>185</v>
+      </c>
+      <c r="F192">
+        <v>7228</v>
+      </c>
+      <c r="H192">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>12</v>
+      </c>
+      <c r="D193">
+        <v>12702</v>
+      </c>
+      <c r="E193">
+        <v>762</v>
+      </c>
+      <c r="F193">
+        <v>3937</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194">
+        <v>12</v>
+      </c>
+      <c r="D194">
+        <v>20535</v>
+      </c>
+      <c r="E194">
+        <v>72</v>
+      </c>
+      <c r="F194">
+        <v>6415</v>
+      </c>
+      <c r="H194">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195">
+        <v>12</v>
+      </c>
+      <c r="D195">
+        <v>27593</v>
+      </c>
+      <c r="E195">
+        <v>66</v>
+      </c>
+      <c r="F195">
+        <v>6399</v>
+      </c>
+      <c r="H195">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196">
+        <v>12</v>
+      </c>
+      <c r="D196">
+        <v>65939</v>
+      </c>
+      <c r="E196">
+        <v>3105</v>
+      </c>
+      <c r="F196">
+        <v>20698</v>
+      </c>
+      <c r="H196">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197">
+        <v>12</v>
+      </c>
+      <c r="D197">
+        <v>7398</v>
+      </c>
+      <c r="E197">
+        <v>436</v>
+      </c>
+      <c r="F197">
+        <v>4144</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>12</v>
+      </c>
+      <c r="D198">
+        <v>21876</v>
+      </c>
+      <c r="E198">
+        <v>115</v>
+      </c>
+      <c r="F198">
+        <v>5825</v>
+      </c>
+      <c r="H198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>12</v>
+      </c>
+      <c r="D199">
+        <v>68537</v>
+      </c>
+      <c r="E199">
+        <v>1635</v>
+      </c>
+      <c r="F199">
+        <v>46825</v>
+      </c>
+      <c r="H199">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+      <c r="C200">
+        <v>12</v>
+      </c>
+      <c r="D200">
+        <v>71824</v>
+      </c>
+      <c r="E200">
+        <v>455</v>
+      </c>
+      <c r="F200">
+        <v>49535</v>
+      </c>
+      <c r="H200">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>12</v>
+      </c>
+      <c r="D201">
+        <v>16885</v>
+      </c>
+      <c r="E201">
+        <v>1016</v>
+      </c>
+      <c r="F201">
+        <v>18567</v>
+      </c>
+      <c r="H201">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202">
+        <v>12</v>
+      </c>
+      <c r="D202">
+        <v>6306</v>
+      </c>
+      <c r="E202">
+        <v>123</v>
+      </c>
+      <c r="F202">
+        <v>1819</v>
+      </c>
+      <c r="H202">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203">
+        <v>12</v>
+      </c>
+      <c r="D203">
+        <v>49541</v>
+      </c>
+      <c r="E203">
+        <v>1607</v>
+      </c>
+      <c r="F203">
+        <v>27911</v>
+      </c>
+      <c r="H203">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+      <c r="C204">
+        <v>12</v>
+      </c>
+      <c r="D204">
+        <v>13160</v>
+      </c>
+      <c r="E204">
+        <v>212</v>
+      </c>
+      <c r="F204">
+        <v>3757</v>
+      </c>
+      <c r="H204">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+      <c r="C205">
+        <v>12</v>
+      </c>
+      <c r="D205">
+        <v>97339</v>
+      </c>
+      <c r="E205">
+        <v>1100</v>
+      </c>
+      <c r="F205">
+        <v>43655</v>
+      </c>
+      <c r="H205">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+      <c r="C206">
+        <v>12</v>
+      </c>
+      <c r="D206">
+        <v>17985</v>
+      </c>
+      <c r="E206">
+        <v>871</v>
+      </c>
+      <c r="F206">
+        <v>6454</v>
+      </c>
+      <c r="H206">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+      <c r="C207">
+        <v>12</v>
+      </c>
+      <c r="D207">
+        <v>10339</v>
+      </c>
+      <c r="E207">
+        <v>649</v>
+      </c>
+      <c r="F207">
+        <v>1328</v>
+      </c>
+      <c r="H207">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B208" t="s">
+        <v>17</v>
+      </c>
+      <c r="C208">
+        <v>12</v>
+      </c>
+      <c r="D208">
+        <v>21181</v>
+      </c>
+      <c r="E208">
+        <v>918</v>
+      </c>
+      <c r="F208">
+        <v>7830</v>
+      </c>
+      <c r="H208">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
